--- a/IBM.xlsx
+++ b/IBM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8A0F38-BB0C-4307-B6D5-600347E3BAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B91A7AB-3F44-4C60-8D5D-894282C20DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{13969822-0D99-4296-BD6D-53BA0933144D}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{13969822-0D99-4296-BD6D-53BA0933144D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,14 +196,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -217,6 +215,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,20 +250,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -590,33 +603,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6A3935-8DC6-478D-B4B7-3FCAFC8825D3}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>219.2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="3">
@@ -626,11 +640,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="3">
@@ -638,11 +652,11 @@
         <v>202682.21731840001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="3">
@@ -653,8 +667,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="3">
@@ -665,8 +679,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="3">
@@ -683,26 +697,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE2A989-C071-41A6-A144-49B2904A508E}">
   <dimension ref="A1:AL276"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
@@ -728,8 +743,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="3"/>
@@ -773,8 +788,8 @@
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3"/>
@@ -818,8 +833,8 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="3"/>
@@ -863,7 +878,7 @@
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -928,8 +943,8 @@
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3"/>
@@ -973,8 +988,8 @@
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="3"/>
@@ -1018,8 +1033,8 @@
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="3"/>
@@ -1063,8 +1078,8 @@
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="3">
@@ -1128,8 +1143,8 @@
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="3"/>
@@ -1173,8 +1188,8 @@
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3"/>
@@ -1218,8 +1233,8 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="3"/>
@@ -1263,8 +1278,8 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="3"/>
@@ -1308,8 +1323,8 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="3">
@@ -1373,8 +1388,8 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="3"/>
@@ -1418,8 +1433,8 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="3">
@@ -1483,8 +1498,8 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="3"/>
@@ -1528,8 +1543,8 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="3">
@@ -1593,8 +1608,8 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="3"/>
@@ -1638,8 +1653,8 @@
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
     </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="3">
@@ -1703,7 +1718,7 @@
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
     </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1741,39 +1756,39 @@
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="2" t="e">
+      <c r="C23" s="7" t="e">
         <f t="shared" ref="C23:H23" si="12">+C21/C24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="2" t="e">
+      <c r="D23" s="7" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="7">
         <f t="shared" si="12"/>
         <v>1.8436721879398072</v>
       </c>
-      <c r="F23" s="2" t="e">
+      <c r="F23" s="7" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="2" t="e">
+      <c r="G23" s="7" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="2" t="e">
+      <c r="H23" s="7" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="7">
         <f>+I21/I24</f>
         <v>-0.35729753139887394</v>
       </c>
-      <c r="J23" s="2" t="e">
+      <c r="J23" s="7" t="e">
         <f t="shared" ref="J23" si="13">+J21/J24</f>
         <v>#DIV/0!</v>
       </c>
@@ -1806,8 +1821,8 @@
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="3"/>
@@ -1851,7 +1866,7 @@
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
     </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1889,8 +1904,8 @@
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
     </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="3"/>
@@ -1899,7 +1914,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="7">
+      <c r="I26" s="8">
         <f>+I3/E3-1</f>
         <v>-1.166953984882646E-2</v>
       </c>
@@ -1933,8 +1948,8 @@
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
     </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="3"/>
@@ -1943,7 +1958,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="7">
+      <c r="I27" s="8">
         <f t="shared" ref="I27:I29" si="14">+I4/E4-1</f>
         <v>4.3985765124555209E-2</v>
       </c>
@@ -1977,8 +1992,8 @@
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="3"/>
@@ -1987,7 +2002,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="7">
+      <c r="I28" s="8">
         <f t="shared" si="14"/>
         <v>-3.2258064516129004E-2</v>
       </c>
@@ -2021,8 +2036,8 @@
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
     </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="3"/>
@@ -2031,7 +2046,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="7">
+      <c r="I29" s="8">
         <f t="shared" si="14"/>
         <v>1.4574295010846061E-2</v>
       </c>
@@ -2065,39 +2080,39 @@
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
     </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="7" t="e">
-        <f t="shared" ref="C30:J30" si="15">+(C3-C7)/C3</f>
+      <c r="C30" s="8" t="e">
+        <f t="shared" ref="C30:H30" si="15">+(C3-C7)/C3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="7" t="e">
+      <c r="D30" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <f t="shared" si="15"/>
         <v>0.30818193873491578</v>
       </c>
-      <c r="F30" s="7" t="e">
+      <c r="F30" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="7" t="e">
+      <c r="G30" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="7" t="e">
+      <c r="H30" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="8">
         <f>+(I3-I7)/I3</f>
         <v>0.32268885012746545</v>
       </c>
-      <c r="J30" s="7" t="e">
+      <c r="J30" s="8" t="e">
         <f t="shared" ref="J30:J31" si="16">+(J3-J7)/J3</f>
         <v>#DIV/0!</v>
       </c>
@@ -2130,39 +2145,39 @@
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="7" t="e">
+      <c r="C31" s="8" t="e">
         <f t="shared" ref="C31:J33" si="17">+(C4-C8)/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="7" t="e">
+      <c r="D31" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="8">
         <f t="shared" si="17"/>
         <v>0.79800711743772246</v>
       </c>
-      <c r="F31" s="7" t="e">
+      <c r="F31" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="7" t="e">
+      <c r="G31" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="7" t="e">
+      <c r="H31" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="8">
         <f>+(I4-I8)/I4</f>
         <v>0.80856285792200711</v>
       </c>
-      <c r="J31" s="7" t="e">
+      <c r="J31" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
@@ -2195,39 +2210,39 @@
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="7" t="e">
+      <c r="C32" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D32" s="7" t="e">
+      <c r="D32" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="8">
         <f t="shared" si="17"/>
         <v>0.4946236559139785</v>
       </c>
-      <c r="F32" s="7" t="e">
+      <c r="F32" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="7" t="e">
+      <c r="G32" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="7" t="e">
+      <c r="H32" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="7">
-        <f t="shared" ref="I31:I33" si="18">+(I5-I9)/I5</f>
+      <c r="I32" s="8">
+        <f t="shared" ref="I32:I33" si="18">+(I5-I9)/I5</f>
         <v>0.47222222222222221</v>
       </c>
-      <c r="J32" s="7" t="e">
+      <c r="J32" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -2260,39 +2275,39 @@
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
     </row>
-    <row r="33" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="7" t="e">
+      <c r="C33" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D33" s="7" t="e">
+      <c r="D33" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="8">
         <f t="shared" si="17"/>
         <v>0.45620932754880694</v>
       </c>
-      <c r="F33" s="7" t="e">
+      <c r="F33" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="7" t="e">
+      <c r="G33" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="7" t="e">
+      <c r="H33" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="8">
         <f t="shared" si="18"/>
         <v>0.43742901048974409</v>
       </c>
-      <c r="J33" s="7" t="e">
+      <c r="J33" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -2325,39 +2340,39 @@
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
     </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="7" t="e">
-        <f t="shared" ref="C34:J34" si="19">+C15/C6</f>
+      <c r="C34" s="8" t="e">
+        <f t="shared" ref="C34:H34" si="19">+C15/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D34" s="7" t="e">
+      <c r="D34" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="8">
         <f t="shared" si="19"/>
         <v>0.15482646420824295</v>
       </c>
-      <c r="F34" s="7" t="e">
+      <c r="F34" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="7" t="e">
+      <c r="G34" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="7" t="e">
+      <c r="H34" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="8">
         <f>+I15/I6</f>
         <v>-2.4921493953364068E-2</v>
       </c>
-      <c r="J34" s="7" t="e">
+      <c r="J34" s="8" t="e">
         <f t="shared" ref="J34" si="20">+J15/J6</f>
         <v>#DIV/0!</v>
       </c>
@@ -2390,39 +2405,39 @@
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
     </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="7" t="e">
-        <f t="shared" ref="C35:J35" si="21">+C18/C17</f>
+      <c r="C35" s="8" t="e">
+        <f t="shared" ref="C35:H35" si="21">+C18/C17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D35" s="7" t="e">
+      <c r="D35" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="8">
         <f t="shared" si="21"/>
         <v>8.4935897435897439E-2</v>
       </c>
-      <c r="F35" s="7" t="e">
+      <c r="F35" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="7" t="e">
+      <c r="G35" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="7" t="e">
+      <c r="H35" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="8">
         <f>+I18/I17</f>
         <v>0.60473815461346636</v>
       </c>
-      <c r="J35" s="7" t="e">
+      <c r="J35" s="8" t="e">
         <f t="shared" ref="J35" si="22">+J18/J17</f>
         <v>#DIV/0!</v>
       </c>
@@ -2455,7 +2470,7 @@
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
     </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2493,7 +2508,7 @@
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
     </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2531,7 +2546,7 @@
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
     </row>
-    <row r="38" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2569,7 +2584,7 @@
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
     </row>
-    <row r="39" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2607,7 +2622,7 @@
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
     </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2645,7 +2660,7 @@
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
     </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2683,7 +2698,7 @@
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
     </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2721,7 +2736,7 @@
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
     </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2759,7 +2774,7 @@
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
     </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2797,7 +2812,7 @@
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
     </row>
-    <row r="45" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2835,7 +2850,7 @@
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
     </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2873,7 +2888,7 @@
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
     </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2911,7 +2926,7 @@
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
     </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2949,7 +2964,7 @@
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
     </row>
-    <row r="49" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2987,7 +3002,7 @@
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
     </row>
-    <row r="50" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3025,7 +3040,7 @@
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
     </row>
-    <row r="51" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3063,7 +3078,7 @@
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
     </row>
-    <row r="52" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3101,7 +3116,7 @@
       <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
     </row>
-    <row r="53" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3139,7 +3154,7 @@
       <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
     </row>
-    <row r="54" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3177,7 +3192,7 @@
       <c r="AK54" s="3"/>
       <c r="AL54" s="3"/>
     </row>
-    <row r="55" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3215,7 +3230,7 @@
       <c r="AK55" s="3"/>
       <c r="AL55" s="3"/>
     </row>
-    <row r="56" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3253,7 +3268,7 @@
       <c r="AK56" s="3"/>
       <c r="AL56" s="3"/>
     </row>
-    <row r="57" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3291,7 +3306,7 @@
       <c r="AK57" s="3"/>
       <c r="AL57" s="3"/>
     </row>
-    <row r="58" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3329,7 +3344,7 @@
       <c r="AK58" s="3"/>
       <c r="AL58" s="3"/>
     </row>
-    <row r="59" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3367,7 +3382,7 @@
       <c r="AK59" s="3"/>
       <c r="AL59" s="3"/>
     </row>
-    <row r="60" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3405,7 +3420,7 @@
       <c r="AK60" s="3"/>
       <c r="AL60" s="3"/>
     </row>
-    <row r="61" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3443,7 +3458,7 @@
       <c r="AK61" s="3"/>
       <c r="AL61" s="3"/>
     </row>
-    <row r="62" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3481,7 +3496,7 @@
       <c r="AK62" s="3"/>
       <c r="AL62" s="3"/>
     </row>
-    <row r="63" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3519,7 +3534,7 @@
       <c r="AK63" s="3"/>
       <c r="AL63" s="3"/>
     </row>
-    <row r="64" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3557,7 +3572,7 @@
       <c r="AK64" s="3"/>
       <c r="AL64" s="3"/>
     </row>
-    <row r="65" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3595,7 +3610,7 @@
       <c r="AK65" s="3"/>
       <c r="AL65" s="3"/>
     </row>
-    <row r="66" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3633,7 +3648,7 @@
       <c r="AK66" s="3"/>
       <c r="AL66" s="3"/>
     </row>
-    <row r="67" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3671,7 +3686,7 @@
       <c r="AK67" s="3"/>
       <c r="AL67" s="3"/>
     </row>
-    <row r="68" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3709,7 +3724,7 @@
       <c r="AK68" s="3"/>
       <c r="AL68" s="3"/>
     </row>
-    <row r="69" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3747,7 +3762,7 @@
       <c r="AK69" s="3"/>
       <c r="AL69" s="3"/>
     </row>
-    <row r="70" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3785,7 +3800,7 @@
       <c r="AK70" s="3"/>
       <c r="AL70" s="3"/>
     </row>
-    <row r="71" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3823,7 +3838,7 @@
       <c r="AK71" s="3"/>
       <c r="AL71" s="3"/>
     </row>
-    <row r="72" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3861,7 +3876,7 @@
       <c r="AK72" s="3"/>
       <c r="AL72" s="3"/>
     </row>
-    <row r="73" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3899,7 +3914,7 @@
       <c r="AK73" s="3"/>
       <c r="AL73" s="3"/>
     </row>
-    <row r="74" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3937,7 +3952,7 @@
       <c r="AK74" s="3"/>
       <c r="AL74" s="3"/>
     </row>
-    <row r="75" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3975,7 +3990,7 @@
       <c r="AK75" s="3"/>
       <c r="AL75" s="3"/>
     </row>
-    <row r="76" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -4013,7 +4028,7 @@
       <c r="AK76" s="3"/>
       <c r="AL76" s="3"/>
     </row>
-    <row r="77" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -4051,7 +4066,7 @@
       <c r="AK77" s="3"/>
       <c r="AL77" s="3"/>
     </row>
-    <row r="78" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -4089,7 +4104,7 @@
       <c r="AK78" s="3"/>
       <c r="AL78" s="3"/>
     </row>
-    <row r="79" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -4127,7 +4142,7 @@
       <c r="AK79" s="3"/>
       <c r="AL79" s="3"/>
     </row>
-    <row r="80" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -4165,7 +4180,7 @@
       <c r="AK80" s="3"/>
       <c r="AL80" s="3"/>
     </row>
-    <row r="81" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -4203,7 +4218,7 @@
       <c r="AK81" s="3"/>
       <c r="AL81" s="3"/>
     </row>
-    <row r="82" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -4241,7 +4256,7 @@
       <c r="AK82" s="3"/>
       <c r="AL82" s="3"/>
     </row>
-    <row r="83" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -4279,7 +4294,7 @@
       <c r="AK83" s="3"/>
       <c r="AL83" s="3"/>
     </row>
-    <row r="84" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -4317,7 +4332,7 @@
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
     </row>
-    <row r="85" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -4355,7 +4370,7 @@
       <c r="AK85" s="3"/>
       <c r="AL85" s="3"/>
     </row>
-    <row r="86" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -4393,7 +4408,7 @@
       <c r="AK86" s="3"/>
       <c r="AL86" s="3"/>
     </row>
-    <row r="87" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -4431,7 +4446,7 @@
       <c r="AK87" s="3"/>
       <c r="AL87" s="3"/>
     </row>
-    <row r="88" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -4469,7 +4484,7 @@
       <c r="AK88" s="3"/>
       <c r="AL88" s="3"/>
     </row>
-    <row r="89" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -4507,7 +4522,7 @@
       <c r="AK89" s="3"/>
       <c r="AL89" s="3"/>
     </row>
-    <row r="90" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -4545,7 +4560,7 @@
       <c r="AK90" s="3"/>
       <c r="AL90" s="3"/>
     </row>
-    <row r="91" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -4583,7 +4598,7 @@
       <c r="AK91" s="3"/>
       <c r="AL91" s="3"/>
     </row>
-    <row r="92" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -4621,7 +4636,7 @@
       <c r="AK92" s="3"/>
       <c r="AL92" s="3"/>
     </row>
-    <row r="93" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4659,7 +4674,7 @@
       <c r="AK93" s="3"/>
       <c r="AL93" s="3"/>
     </row>
-    <row r="94" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4697,7 +4712,7 @@
       <c r="AK94" s="3"/>
       <c r="AL94" s="3"/>
     </row>
-    <row r="95" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4735,7 +4750,7 @@
       <c r="AK95" s="3"/>
       <c r="AL95" s="3"/>
     </row>
-    <row r="96" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -4773,7 +4788,7 @@
       <c r="AK96" s="3"/>
       <c r="AL96" s="3"/>
     </row>
-    <row r="97" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -4811,7 +4826,7 @@
       <c r="AK97" s="3"/>
       <c r="AL97" s="3"/>
     </row>
-    <row r="98" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -4849,7 +4864,7 @@
       <c r="AK98" s="3"/>
       <c r="AL98" s="3"/>
     </row>
-    <row r="99" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -4887,7 +4902,7 @@
       <c r="AK99" s="3"/>
       <c r="AL99" s="3"/>
     </row>
-    <row r="100" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -4925,7 +4940,7 @@
       <c r="AK100" s="3"/>
       <c r="AL100" s="3"/>
     </row>
-    <row r="101" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -4963,7 +4978,7 @@
       <c r="AK101" s="3"/>
       <c r="AL101" s="3"/>
     </row>
-    <row r="102" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -5001,7 +5016,7 @@
       <c r="AK102" s="3"/>
       <c r="AL102" s="3"/>
     </row>
-    <row r="103" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -5039,7 +5054,7 @@
       <c r="AK103" s="3"/>
       <c r="AL103" s="3"/>
     </row>
-    <row r="104" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -5077,7 +5092,7 @@
       <c r="AK104" s="3"/>
       <c r="AL104" s="3"/>
     </row>
-    <row r="105" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -5115,7 +5130,7 @@
       <c r="AK105" s="3"/>
       <c r="AL105" s="3"/>
     </row>
-    <row r="106" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -5153,7 +5168,7 @@
       <c r="AK106" s="3"/>
       <c r="AL106" s="3"/>
     </row>
-    <row r="107" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -5191,7 +5206,7 @@
       <c r="AK107" s="3"/>
       <c r="AL107" s="3"/>
     </row>
-    <row r="108" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -5229,7 +5244,7 @@
       <c r="AK108" s="3"/>
       <c r="AL108" s="3"/>
     </row>
-    <row r="109" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -5267,7 +5282,7 @@
       <c r="AK109" s="3"/>
       <c r="AL109" s="3"/>
     </row>
-    <row r="110" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -5305,7 +5320,7 @@
       <c r="AK110" s="3"/>
       <c r="AL110" s="3"/>
     </row>
-    <row r="111" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -5343,7 +5358,7 @@
       <c r="AK111" s="3"/>
       <c r="AL111" s="3"/>
     </row>
-    <row r="112" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -5381,7 +5396,7 @@
       <c r="AK112" s="3"/>
       <c r="AL112" s="3"/>
     </row>
-    <row r="113" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -5419,7 +5434,7 @@
       <c r="AK113" s="3"/>
       <c r="AL113" s="3"/>
     </row>
-    <row r="114" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -5457,7 +5472,7 @@
       <c r="AK114" s="3"/>
       <c r="AL114" s="3"/>
     </row>
-    <row r="115" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -5495,7 +5510,7 @@
       <c r="AK115" s="3"/>
       <c r="AL115" s="3"/>
     </row>
-    <row r="116" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -5533,7 +5548,7 @@
       <c r="AK116" s="3"/>
       <c r="AL116" s="3"/>
     </row>
-    <row r="117" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -5571,7 +5586,7 @@
       <c r="AK117" s="3"/>
       <c r="AL117" s="3"/>
     </row>
-    <row r="118" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -5609,7 +5624,7 @@
       <c r="AK118" s="3"/>
       <c r="AL118" s="3"/>
     </row>
-    <row r="119" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -5647,7 +5662,7 @@
       <c r="AK119" s="3"/>
       <c r="AL119" s="3"/>
     </row>
-    <row r="120" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -5685,7 +5700,7 @@
       <c r="AK120" s="3"/>
       <c r="AL120" s="3"/>
     </row>
-    <row r="121" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -5723,7 +5738,7 @@
       <c r="AK121" s="3"/>
       <c r="AL121" s="3"/>
     </row>
-    <row r="122" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -5761,7 +5776,7 @@
       <c r="AK122" s="3"/>
       <c r="AL122" s="3"/>
     </row>
-    <row r="123" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -5799,7 +5814,7 @@
       <c r="AK123" s="3"/>
       <c r="AL123" s="3"/>
     </row>
-    <row r="124" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -5837,7 +5852,7 @@
       <c r="AK124" s="3"/>
       <c r="AL124" s="3"/>
     </row>
-    <row r="125" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -5875,7 +5890,7 @@
       <c r="AK125" s="3"/>
       <c r="AL125" s="3"/>
     </row>
-    <row r="126" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -5913,7 +5928,7 @@
       <c r="AK126" s="3"/>
       <c r="AL126" s="3"/>
     </row>
-    <row r="127" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -5951,7 +5966,7 @@
       <c r="AK127" s="3"/>
       <c r="AL127" s="3"/>
     </row>
-    <row r="128" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -5989,7 +6004,7 @@
       <c r="AK128" s="3"/>
       <c r="AL128" s="3"/>
     </row>
-    <row r="129" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -6027,7 +6042,7 @@
       <c r="AK129" s="3"/>
       <c r="AL129" s="3"/>
     </row>
-    <row r="130" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -6065,7 +6080,7 @@
       <c r="AK130" s="3"/>
       <c r="AL130" s="3"/>
     </row>
-    <row r="131" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -6103,7 +6118,7 @@
       <c r="AK131" s="3"/>
       <c r="AL131" s="3"/>
     </row>
-    <row r="132" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -6141,7 +6156,7 @@
       <c r="AK132" s="3"/>
       <c r="AL132" s="3"/>
     </row>
-    <row r="133" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -6179,7 +6194,7 @@
       <c r="AK133" s="3"/>
       <c r="AL133" s="3"/>
     </row>
-    <row r="134" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -6217,7 +6232,7 @@
       <c r="AK134" s="3"/>
       <c r="AL134" s="3"/>
     </row>
-    <row r="135" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -6255,7 +6270,7 @@
       <c r="AK135" s="3"/>
       <c r="AL135" s="3"/>
     </row>
-    <row r="136" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -6293,7 +6308,7 @@
       <c r="AK136" s="3"/>
       <c r="AL136" s="3"/>
     </row>
-    <row r="137" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -6331,7 +6346,7 @@
       <c r="AK137" s="3"/>
       <c r="AL137" s="3"/>
     </row>
-    <row r="138" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -6369,7 +6384,7 @@
       <c r="AK138" s="3"/>
       <c r="AL138" s="3"/>
     </row>
-    <row r="139" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -6407,7 +6422,7 @@
       <c r="AK139" s="3"/>
       <c r="AL139" s="3"/>
     </row>
-    <row r="140" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -6445,7 +6460,7 @@
       <c r="AK140" s="3"/>
       <c r="AL140" s="3"/>
     </row>
-    <row r="141" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -6483,7 +6498,7 @@
       <c r="AK141" s="3"/>
       <c r="AL141" s="3"/>
     </row>
-    <row r="142" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -6521,7 +6536,7 @@
       <c r="AK142" s="3"/>
       <c r="AL142" s="3"/>
     </row>
-    <row r="143" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -6559,7 +6574,7 @@
       <c r="AK143" s="3"/>
       <c r="AL143" s="3"/>
     </row>
-    <row r="144" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -6597,7 +6612,7 @@
       <c r="AK144" s="3"/>
       <c r="AL144" s="3"/>
     </row>
-    <row r="145" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -6635,7 +6650,7 @@
       <c r="AK145" s="3"/>
       <c r="AL145" s="3"/>
     </row>
-    <row r="146" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -6673,7 +6688,7 @@
       <c r="AK146" s="3"/>
       <c r="AL146" s="3"/>
     </row>
-    <row r="147" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -6711,7 +6726,7 @@
       <c r="AK147" s="3"/>
       <c r="AL147" s="3"/>
     </row>
-    <row r="148" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -6749,7 +6764,7 @@
       <c r="AK148" s="3"/>
       <c r="AL148" s="3"/>
     </row>
-    <row r="149" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -6787,7 +6802,7 @@
       <c r="AK149" s="3"/>
       <c r="AL149" s="3"/>
     </row>
-    <row r="150" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -6825,7 +6840,7 @@
       <c r="AK150" s="3"/>
       <c r="AL150" s="3"/>
     </row>
-    <row r="151" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -6863,7 +6878,7 @@
       <c r="AK151" s="3"/>
       <c r="AL151" s="3"/>
     </row>
-    <row r="152" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -6901,7 +6916,7 @@
       <c r="AK152" s="3"/>
       <c r="AL152" s="3"/>
     </row>
-    <row r="153" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -6939,7 +6954,7 @@
       <c r="AK153" s="3"/>
       <c r="AL153" s="3"/>
     </row>
-    <row r="154" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -6977,7 +6992,7 @@
       <c r="AK154" s="3"/>
       <c r="AL154" s="3"/>
     </row>
-    <row r="155" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -7015,7 +7030,7 @@
       <c r="AK155" s="3"/>
       <c r="AL155" s="3"/>
     </row>
-    <row r="156" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -7053,7 +7068,7 @@
       <c r="AK156" s="3"/>
       <c r="AL156" s="3"/>
     </row>
-    <row r="157" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -7091,7 +7106,7 @@
       <c r="AK157" s="3"/>
       <c r="AL157" s="3"/>
     </row>
-    <row r="158" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -7129,7 +7144,7 @@
       <c r="AK158" s="3"/>
       <c r="AL158" s="3"/>
     </row>
-    <row r="159" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -7167,7 +7182,7 @@
       <c r="AK159" s="3"/>
       <c r="AL159" s="3"/>
     </row>
-    <row r="160" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -7205,7 +7220,7 @@
       <c r="AK160" s="3"/>
       <c r="AL160" s="3"/>
     </row>
-    <row r="161" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -7243,7 +7258,7 @@
       <c r="AK161" s="3"/>
       <c r="AL161" s="3"/>
     </row>
-    <row r="162" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -7281,7 +7296,7 @@
       <c r="AK162" s="3"/>
       <c r="AL162" s="3"/>
     </row>
-    <row r="163" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -7319,7 +7334,7 @@
       <c r="AK163" s="3"/>
       <c r="AL163" s="3"/>
     </row>
-    <row r="164" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -7357,7 +7372,7 @@
       <c r="AK164" s="3"/>
       <c r="AL164" s="3"/>
     </row>
-    <row r="165" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -7395,7 +7410,7 @@
       <c r="AK165" s="3"/>
       <c r="AL165" s="3"/>
     </row>
-    <row r="166" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -7433,7 +7448,7 @@
       <c r="AK166" s="3"/>
       <c r="AL166" s="3"/>
     </row>
-    <row r="167" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -7471,7 +7486,7 @@
       <c r="AK167" s="3"/>
       <c r="AL167" s="3"/>
     </row>
-    <row r="168" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -7509,7 +7524,7 @@
       <c r="AK168" s="3"/>
       <c r="AL168" s="3"/>
     </row>
-    <row r="169" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -7547,7 +7562,7 @@
       <c r="AK169" s="3"/>
       <c r="AL169" s="3"/>
     </row>
-    <row r="170" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -7585,7 +7600,7 @@
       <c r="AK170" s="3"/>
       <c r="AL170" s="3"/>
     </row>
-    <row r="171" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -7623,7 +7638,7 @@
       <c r="AK171" s="3"/>
       <c r="AL171" s="3"/>
     </row>
-    <row r="172" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -7661,7 +7676,7 @@
       <c r="AK172" s="3"/>
       <c r="AL172" s="3"/>
     </row>
-    <row r="173" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -7699,7 +7714,7 @@
       <c r="AK173" s="3"/>
       <c r="AL173" s="3"/>
     </row>
-    <row r="174" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -7737,7 +7752,7 @@
       <c r="AK174" s="3"/>
       <c r="AL174" s="3"/>
     </row>
-    <row r="175" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -7775,7 +7790,7 @@
       <c r="AK175" s="3"/>
       <c r="AL175" s="3"/>
     </row>
-    <row r="176" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -7813,7 +7828,7 @@
       <c r="AK176" s="3"/>
       <c r="AL176" s="3"/>
     </row>
-    <row r="177" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -7851,7 +7866,7 @@
       <c r="AK177" s="3"/>
       <c r="AL177" s="3"/>
     </row>
-    <row r="178" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -7889,7 +7904,7 @@
       <c r="AK178" s="3"/>
       <c r="AL178" s="3"/>
     </row>
-    <row r="179" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -7927,7 +7942,7 @@
       <c r="AK179" s="3"/>
       <c r="AL179" s="3"/>
     </row>
-    <row r="180" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -7965,7 +7980,7 @@
       <c r="AK180" s="3"/>
       <c r="AL180" s="3"/>
     </row>
-    <row r="181" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -8003,7 +8018,7 @@
       <c r="AK181" s="3"/>
       <c r="AL181" s="3"/>
     </row>
-    <row r="182" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -8041,7 +8056,7 @@
       <c r="AK182" s="3"/>
       <c r="AL182" s="3"/>
     </row>
-    <row r="183" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -8079,7 +8094,7 @@
       <c r="AK183" s="3"/>
       <c r="AL183" s="3"/>
     </row>
-    <row r="184" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -8117,7 +8132,7 @@
       <c r="AK184" s="3"/>
       <c r="AL184" s="3"/>
     </row>
-    <row r="185" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -8155,7 +8170,7 @@
       <c r="AK185" s="3"/>
       <c r="AL185" s="3"/>
     </row>
-    <row r="186" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -8193,7 +8208,7 @@
       <c r="AK186" s="3"/>
       <c r="AL186" s="3"/>
     </row>
-    <row r="187" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -8231,7 +8246,7 @@
       <c r="AK187" s="3"/>
       <c r="AL187" s="3"/>
     </row>
-    <row r="188" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -8269,7 +8284,7 @@
       <c r="AK188" s="3"/>
       <c r="AL188" s="3"/>
     </row>
-    <row r="189" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -8307,7 +8322,7 @@
       <c r="AK189" s="3"/>
       <c r="AL189" s="3"/>
     </row>
-    <row r="190" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -8345,7 +8360,7 @@
       <c r="AK190" s="3"/>
       <c r="AL190" s="3"/>
     </row>
-    <row r="191" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -8383,7 +8398,7 @@
       <c r="AK191" s="3"/>
       <c r="AL191" s="3"/>
     </row>
-    <row r="192" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -8421,7 +8436,7 @@
       <c r="AK192" s="3"/>
       <c r="AL192" s="3"/>
     </row>
-    <row r="193" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -8459,7 +8474,7 @@
       <c r="AK193" s="3"/>
       <c r="AL193" s="3"/>
     </row>
-    <row r="194" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -8497,7 +8512,7 @@
       <c r="AK194" s="3"/>
       <c r="AL194" s="3"/>
     </row>
-    <row r="195" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -8535,7 +8550,7 @@
       <c r="AK195" s="3"/>
       <c r="AL195" s="3"/>
     </row>
-    <row r="196" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -8573,7 +8588,7 @@
       <c r="AK196" s="3"/>
       <c r="AL196" s="3"/>
     </row>
-    <row r="197" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -8611,7 +8626,7 @@
       <c r="AK197" s="3"/>
       <c r="AL197" s="3"/>
     </row>
-    <row r="198" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -8649,7 +8664,7 @@
       <c r="AK198" s="3"/>
       <c r="AL198" s="3"/>
     </row>
-    <row r="199" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -8687,7 +8702,7 @@
       <c r="AK199" s="3"/>
       <c r="AL199" s="3"/>
     </row>
-    <row r="200" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -8725,7 +8740,7 @@
       <c r="AK200" s="3"/>
       <c r="AL200" s="3"/>
     </row>
-    <row r="201" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -8763,7 +8778,7 @@
       <c r="AK201" s="3"/>
       <c r="AL201" s="3"/>
     </row>
-    <row r="202" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -8801,7 +8816,7 @@
       <c r="AK202" s="3"/>
       <c r="AL202" s="3"/>
     </row>
-    <row r="203" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -8839,7 +8854,7 @@
       <c r="AK203" s="3"/>
       <c r="AL203" s="3"/>
     </row>
-    <row r="204" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -8877,7 +8892,7 @@
       <c r="AK204" s="3"/>
       <c r="AL204" s="3"/>
     </row>
-    <row r="205" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -8915,7 +8930,7 @@
       <c r="AK205" s="3"/>
       <c r="AL205" s="3"/>
     </row>
-    <row r="206" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -8953,7 +8968,7 @@
       <c r="AK206" s="3"/>
       <c r="AL206" s="3"/>
     </row>
-    <row r="207" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -8991,7 +9006,7 @@
       <c r="AK207" s="3"/>
       <c r="AL207" s="3"/>
     </row>
-    <row r="208" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -9029,7 +9044,7 @@
       <c r="AK208" s="3"/>
       <c r="AL208" s="3"/>
     </row>
-    <row r="209" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -9067,7 +9082,7 @@
       <c r="AK209" s="3"/>
       <c r="AL209" s="3"/>
     </row>
-    <row r="210" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -9105,7 +9120,7 @@
       <c r="AK210" s="3"/>
       <c r="AL210" s="3"/>
     </row>
-    <row r="211" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -9143,7 +9158,7 @@
       <c r="AK211" s="3"/>
       <c r="AL211" s="3"/>
     </row>
-    <row r="212" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -9181,7 +9196,7 @@
       <c r="AK212" s="3"/>
       <c r="AL212" s="3"/>
     </row>
-    <row r="213" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -9219,7 +9234,7 @@
       <c r="AK213" s="3"/>
       <c r="AL213" s="3"/>
     </row>
-    <row r="214" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -9257,7 +9272,7 @@
       <c r="AK214" s="3"/>
       <c r="AL214" s="3"/>
     </row>
-    <row r="215" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -9295,7 +9310,7 @@
       <c r="AK215" s="3"/>
       <c r="AL215" s="3"/>
     </row>
-    <row r="216" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -9333,7 +9348,7 @@
       <c r="AK216" s="3"/>
       <c r="AL216" s="3"/>
     </row>
-    <row r="217" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -9371,7 +9386,7 @@
       <c r="AK217" s="3"/>
       <c r="AL217" s="3"/>
     </row>
-    <row r="218" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -9409,7 +9424,7 @@
       <c r="AK218" s="3"/>
       <c r="AL218" s="3"/>
     </row>
-    <row r="219" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -9447,7 +9462,7 @@
       <c r="AK219" s="3"/>
       <c r="AL219" s="3"/>
     </row>
-    <row r="220" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -9485,7 +9500,7 @@
       <c r="AK220" s="3"/>
       <c r="AL220" s="3"/>
     </row>
-    <row r="221" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -9523,7 +9538,7 @@
       <c r="AK221" s="3"/>
       <c r="AL221" s="3"/>
     </row>
-    <row r="222" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -9561,7 +9576,7 @@
       <c r="AK222" s="3"/>
       <c r="AL222" s="3"/>
     </row>
-    <row r="223" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -9599,7 +9614,7 @@
       <c r="AK223" s="3"/>
       <c r="AL223" s="3"/>
     </row>
-    <row r="224" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -9637,7 +9652,7 @@
       <c r="AK224" s="3"/>
       <c r="AL224" s="3"/>
     </row>
-    <row r="225" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -9675,7 +9690,7 @@
       <c r="AK225" s="3"/>
       <c r="AL225" s="3"/>
     </row>
-    <row r="226" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -9713,7 +9728,7 @@
       <c r="AK226" s="3"/>
       <c r="AL226" s="3"/>
     </row>
-    <row r="227" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -9751,7 +9766,7 @@
       <c r="AK227" s="3"/>
       <c r="AL227" s="3"/>
     </row>
-    <row r="228" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -9789,7 +9804,7 @@
       <c r="AK228" s="3"/>
       <c r="AL228" s="3"/>
     </row>
-    <row r="229" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -9827,7 +9842,7 @@
       <c r="AK229" s="3"/>
       <c r="AL229" s="3"/>
     </row>
-    <row r="230" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -9865,7 +9880,7 @@
       <c r="AK230" s="3"/>
       <c r="AL230" s="3"/>
     </row>
-    <row r="231" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -9903,7 +9918,7 @@
       <c r="AK231" s="3"/>
       <c r="AL231" s="3"/>
     </row>
-    <row r="232" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -9941,7 +9956,7 @@
       <c r="AK232" s="3"/>
       <c r="AL232" s="3"/>
     </row>
-    <row r="233" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -9979,7 +9994,7 @@
       <c r="AK233" s="3"/>
       <c r="AL233" s="3"/>
     </row>
-    <row r="234" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -10017,7 +10032,7 @@
       <c r="AK234" s="3"/>
       <c r="AL234" s="3"/>
     </row>
-    <row r="235" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -10055,7 +10070,7 @@
       <c r="AK235" s="3"/>
       <c r="AL235" s="3"/>
     </row>
-    <row r="236" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -10093,7 +10108,7 @@
       <c r="AK236" s="3"/>
       <c r="AL236" s="3"/>
     </row>
-    <row r="237" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -10131,7 +10146,7 @@
       <c r="AK237" s="3"/>
       <c r="AL237" s="3"/>
     </row>
-    <row r="238" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -10169,7 +10184,7 @@
       <c r="AK238" s="3"/>
       <c r="AL238" s="3"/>
     </row>
-    <row r="239" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -10207,7 +10222,7 @@
       <c r="AK239" s="3"/>
       <c r="AL239" s="3"/>
     </row>
-    <row r="240" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -10245,7 +10260,7 @@
       <c r="AK240" s="3"/>
       <c r="AL240" s="3"/>
     </row>
-    <row r="241" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -10283,7 +10298,7 @@
       <c r="AK241" s="3"/>
       <c r="AL241" s="3"/>
     </row>
-    <row r="242" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -10321,7 +10336,7 @@
       <c r="AK242" s="3"/>
       <c r="AL242" s="3"/>
     </row>
-    <row r="243" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -10359,7 +10374,7 @@
       <c r="AK243" s="3"/>
       <c r="AL243" s="3"/>
     </row>
-    <row r="244" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -10397,7 +10412,7 @@
       <c r="AK244" s="3"/>
       <c r="AL244" s="3"/>
     </row>
-    <row r="245" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -10435,7 +10450,7 @@
       <c r="AK245" s="3"/>
       <c r="AL245" s="3"/>
     </row>
-    <row r="246" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -10473,7 +10488,7 @@
       <c r="AK246" s="3"/>
       <c r="AL246" s="3"/>
     </row>
-    <row r="247" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -10511,7 +10526,7 @@
       <c r="AK247" s="3"/>
       <c r="AL247" s="3"/>
     </row>
-    <row r="248" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -10549,7 +10564,7 @@
       <c r="AK248" s="3"/>
       <c r="AL248" s="3"/>
     </row>
-    <row r="249" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -10587,7 +10602,7 @@
       <c r="AK249" s="3"/>
       <c r="AL249" s="3"/>
     </row>
-    <row r="250" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -10625,7 +10640,7 @@
       <c r="AK250" s="3"/>
       <c r="AL250" s="3"/>
     </row>
-    <row r="251" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -10663,7 +10678,7 @@
       <c r="AK251" s="3"/>
       <c r="AL251" s="3"/>
     </row>
-    <row r="252" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -10701,7 +10716,7 @@
       <c r="AK252" s="3"/>
       <c r="AL252" s="3"/>
     </row>
-    <row r="253" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -10739,7 +10754,7 @@
       <c r="AK253" s="3"/>
       <c r="AL253" s="3"/>
     </row>
-    <row r="254" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -10777,7 +10792,7 @@
       <c r="AK254" s="3"/>
       <c r="AL254" s="3"/>
     </row>
-    <row r="255" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -10815,7 +10830,7 @@
       <c r="AK255" s="3"/>
       <c r="AL255" s="3"/>
     </row>
-    <row r="256" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -10853,7 +10868,7 @@
       <c r="AK256" s="3"/>
       <c r="AL256" s="3"/>
     </row>
-    <row r="257" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -10891,7 +10906,7 @@
       <c r="AK257" s="3"/>
       <c r="AL257" s="3"/>
     </row>
-    <row r="258" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -10929,7 +10944,7 @@
       <c r="AK258" s="3"/>
       <c r="AL258" s="3"/>
     </row>
-    <row r="259" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -10967,7 +10982,7 @@
       <c r="AK259" s="3"/>
       <c r="AL259" s="3"/>
     </row>
-    <row r="260" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -11005,7 +11020,7 @@
       <c r="AK260" s="3"/>
       <c r="AL260" s="3"/>
     </row>
-    <row r="261" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -11043,7 +11058,7 @@
       <c r="AK261" s="3"/>
       <c r="AL261" s="3"/>
     </row>
-    <row r="262" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -11081,7 +11096,7 @@
       <c r="AK262" s="3"/>
       <c r="AL262" s="3"/>
     </row>
-    <row r="263" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -11119,7 +11134,7 @@
       <c r="AK263" s="3"/>
       <c r="AL263" s="3"/>
     </row>
-    <row r="264" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -11157,7 +11172,7 @@
       <c r="AK264" s="3"/>
       <c r="AL264" s="3"/>
     </row>
-    <row r="265" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -11195,7 +11210,7 @@
       <c r="AK265" s="3"/>
       <c r="AL265" s="3"/>
     </row>
-    <row r="266" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -11233,7 +11248,7 @@
       <c r="AK266" s="3"/>
       <c r="AL266" s="3"/>
     </row>
-    <row r="267" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -11271,7 +11286,7 @@
       <c r="AK267" s="3"/>
       <c r="AL267" s="3"/>
     </row>
-    <row r="268" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -11309,7 +11324,7 @@
       <c r="AK268" s="3"/>
       <c r="AL268" s="3"/>
     </row>
-    <row r="269" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -11347,7 +11362,7 @@
       <c r="AK269" s="3"/>
       <c r="AL269" s="3"/>
     </row>
-    <row r="270" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -11385,7 +11400,7 @@
       <c r="AK270" s="3"/>
       <c r="AL270" s="3"/>
     </row>
-    <row r="271" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -11423,7 +11438,7 @@
       <c r="AK271" s="3"/>
       <c r="AL271" s="3"/>
     </row>
-    <row r="272" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -11461,7 +11476,7 @@
       <c r="AK272" s="3"/>
       <c r="AL272" s="3"/>
     </row>
-    <row r="273" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -11499,7 +11514,7 @@
       <c r="AK273" s="3"/>
       <c r="AL273" s="3"/>
     </row>
-    <row r="274" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -11537,7 +11552,7 @@
       <c r="AK274" s="3"/>
       <c r="AL274" s="3"/>
     </row>
-    <row r="275" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -11575,7 +11590,7 @@
       <c r="AK275" s="3"/>
       <c r="AL275" s="3"/>
     </row>
-    <row r="276" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
